--- a/335Lab/Lab 3/rawData/rpm1500.xlsx
+++ b/335Lab/Lab 3/rawData/rpm1500.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Class Work\Current\ME335\335Lab\Lab 3\rawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1451EDB-582D-476D-9981-4D989B1E2D5B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE92CC33-1D99-4A43-9FDB-048F116FDC32}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6525" yWindow="2775" windowWidth="12090" windowHeight="9765" xr2:uid="{A1EB32E3-C24A-46A4-9729-BC83FA088716}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{A1EB32E3-C24A-46A4-9729-BC83FA088716}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>TapPressure_H20</t>
   </si>
@@ -43,6 +43,12 @@
   </si>
   <si>
     <t>TapLocation_in</t>
+  </si>
+  <si>
+    <t>TapPressure_H20_stddev</t>
+  </si>
+  <si>
+    <t>FlowRate_GPM_stddev</t>
   </si>
 </sst>
 </file>
@@ -397,20 +403,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9C19ECA-F57B-4F65-B755-1FC446513714}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -418,106 +426,166 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>-9.75</v>
       </c>
       <c r="B2" s="1">
         <v>41.143999999999998</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2">
+        <v>0.69934254839813692</v>
+      </c>
+      <c r="D2" s="1">
         <v>23.744</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E2">
+        <v>3.5777087639997658E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>-7.75</v>
       </c>
       <c r="B3" s="1">
         <v>41.448</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3">
+        <v>0.29507626132916831</v>
+      </c>
+      <c r="D3" s="1">
         <v>23.724</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E3">
+        <v>7.0213958726167924E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>-3.5</v>
       </c>
       <c r="B4" s="1">
         <v>41.786000000000001</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4">
+        <v>0.22711230702011945</v>
+      </c>
+      <c r="D4" s="1">
         <v>23.788</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E4">
+        <v>7.4632432628181214E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>-1</v>
       </c>
       <c r="B5" s="1">
         <v>41.585999999999999</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5">
+        <v>0.13630847369110907</v>
+      </c>
+      <c r="D5" s="1">
         <v>23.744</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E5">
+        <v>4.6151923036857709E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1</v>
       </c>
       <c r="B6" s="1">
         <v>33.108000000000004</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6">
+        <v>0.43637140144606268</v>
+      </c>
+      <c r="D6" s="1">
         <v>23.808</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E6">
+        <v>4.9699094559157574E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>3.5</v>
       </c>
       <c r="B7" s="1">
         <v>36.003999999999998</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7">
+        <v>0.20305171754998907</v>
+      </c>
+      <c r="D7" s="1">
         <v>23.75</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E7">
+        <v>6.5954529791363861E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7.5</v>
       </c>
       <c r="B8" s="1">
         <v>36.782000000000004</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8">
+        <v>0.3246074552440219</v>
+      </c>
+      <c r="D8" s="1">
         <v>23.761999999999997</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E8">
+        <v>6.0580524923443131E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>11.5</v>
       </c>
       <c r="B9" s="1">
         <v>36.861999999999995</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9">
+        <v>0.14567086187703876</v>
+      </c>
+      <c r="D9" s="1">
         <v>23.75</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E9">
+        <v>4.472135954999603E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>15.5</v>
       </c>
       <c r="B10" s="1">
         <v>36.634</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10">
+        <v>0.26884940022250448</v>
+      </c>
+      <c r="D10" s="1">
         <v>23.755999999999997</v>
+      </c>
+      <c r="E10">
+        <v>7.7653074633268968E-2</v>
       </c>
     </row>
   </sheetData>
